--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/menu/APP-80300-4800$-zero.am-SIDE.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/menu/APP-80300-4800$-zero.am-SIDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/vertx-zero/vertx-env/exec-toolkit/configuration/menu/zero-erp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6822C5-EED5-C542-A9F2-3C38B1DB2E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55F082F-FD66-C641-88FF-77439EFCB568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-71760" yWindow="-13680" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -622,7 +622,7 @@
   <dimension ref="A2:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
